--- a/data/trans_bre/P07_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-21.42688944708841</v>
+        <v>-21.55298032835267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.36251076780803</v>
+        <v>-15.56078728264365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.77268900596004</v>
+        <v>-17.50779130265953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.16332464018948</v>
+        <v>-19.05482003169602</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3070793743748357</v>
+        <v>-0.3070510366920984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2436689876471737</v>
+        <v>-0.2316176801444041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2439462695009066</v>
+        <v>-0.2520050646386459</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2949105415841277</v>
+        <v>-0.2978821111845458</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-13.37947404439703</v>
+        <v>-13.2648041592567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.024422679317308</v>
+        <v>-7.12497085829077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.70492821257568</v>
+        <v>-8.010039046761316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.86618190513029</v>
+        <v>-9.828618808498181</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2035905552825693</v>
+        <v>-0.2019580376434477</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1276062588207557</v>
+        <v>-0.1157963454923796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1202253087641046</v>
+        <v>-0.1215312354698283</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1659194477841484</v>
+        <v>-0.166329541741871</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.89540265335362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.749430198145987</v>
+        <v>-3.749430198145998</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08307270756948557</v>
@@ -749,7 +749,7 @@
         <v>-0.05570572780582694</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.04374097737709865</v>
+        <v>-0.04374097737709878</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.969216175669612</v>
+        <v>-9.921341415961292</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.352157184581477</v>
+        <v>-8.371625378120921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.195209018336521</v>
+        <v>-7.06358853756941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.892945806433701</v>
+        <v>-5.734746871723227</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1070854260856513</v>
+        <v>-0.1072338581717493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09211310371514023</v>
+        <v>-0.09242709274379585</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08133626553861534</v>
+        <v>-0.07987627190880917</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06767215938237327</v>
+        <v>-0.06579522994640281</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-5.392649425547285</v>
+        <v>-5.285873730301679</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.633774189740307</v>
+        <v>-3.858307412952142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.583727500848292</v>
+        <v>-2.54960053482017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.603894919593424</v>
+        <v>-1.732785739758217</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05887860643865928</v>
+        <v>-0.05856019802206647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04076622389279174</v>
+        <v>-0.04316999148673795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02984174339558616</v>
+        <v>-0.02976725835875196</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01895948820409189</v>
+        <v>-0.01961159497397883</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.239586893659542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.8301181107322031</v>
+        <v>-0.830118110732192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.06466431444221657</v>
@@ -849,7 +849,7 @@
         <v>-0.04498278129682885</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.009270946948018931</v>
+        <v>-0.009270946948018808</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.02366459419983</v>
+        <v>-10.00183903204301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.332855307106429</v>
+        <v>-5.462416463440756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.385496020847833</v>
+        <v>-7.814195135837533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.583028636225196</v>
+        <v>-4.113780388646325</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.107663158425717</v>
+        <v>-0.1074873911548975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05572016551795329</v>
+        <v>-0.05746137882258846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07785329377278308</v>
+        <v>-0.08120172765827455</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03948442105944798</v>
+        <v>-0.04493068242891994</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.899189177050519</v>
+        <v>-1.554545464814682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.28259267078465</v>
+        <v>2.514548778156855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.7833505409619539</v>
+        <v>-0.6298823780066641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.379512836570053</v>
+        <v>2.319906960100326</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.02099417714186638</v>
+        <v>-0.01814691906170081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02468549204515211</v>
+        <v>0.02710925561420798</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.008495785979661784</v>
+        <v>-0.006799087409840965</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.02692275861187141</v>
+        <v>0.02671571673749681</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-8.159513437596589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.91983481167947</v>
+        <v>-6.919834811679482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1540315089148565</v>
@@ -949,7 +949,7 @@
         <v>-0.09687580668431693</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.08376940410158037</v>
+        <v>-0.08376940410158049</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.87898818551388</v>
+        <v>-15.20256152123598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.16919496956842</v>
+        <v>-12.15104880646733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.958786069558032</v>
+        <v>-10.07321934256974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.519126039466684</v>
+        <v>-8.66398942025689</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1745541370753965</v>
+        <v>-0.1780882244553276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1443487070949965</v>
+        <v>-0.1436130996196883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1174993848535724</v>
+        <v>-0.1185899440043142</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1023674931520561</v>
+        <v>-0.1032986018347859</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.9779696096485</v>
+        <v>-11.08851145908402</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.120814262396694</v>
+        <v>-7.910334537169093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.06643039318868</v>
+        <v>-6.15974609008294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-5.173014331604137</v>
+        <v>-5.234817529960678</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1305211691896555</v>
+        <v>-0.1324333814940563</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09855528457450617</v>
+        <v>-0.09526911116925302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07314436133753774</v>
+        <v>-0.07423124203418389</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06292976517851911</v>
+        <v>-0.06434115079579386</v>
       </c>
     </row>
     <row r="16">
